--- a/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Tnf-Tnfrsf21.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Tnf-Tnfrsf21.xlsx
@@ -543,16 +543,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>2.691042333333334</v>
+        <v>6.138319333333333</v>
       </c>
       <c r="H2">
-        <v>8.073127000000001</v>
+        <v>18.414958</v>
       </c>
       <c r="I2">
-        <v>0.002563467013859998</v>
+        <v>0.004764958906502185</v>
       </c>
       <c r="J2">
-        <v>0.002563467013859997</v>
+        <v>0.004764958906502184</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -561,28 +561,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>11.166443</v>
+        <v>12.262812</v>
       </c>
       <c r="N2">
-        <v>33.499329</v>
+        <v>36.788436</v>
       </c>
       <c r="O2">
-        <v>0.108211886127637</v>
+        <v>0.1198051441989319</v>
       </c>
       <c r="P2">
-        <v>0.108211886127637</v>
+        <v>0.1198051441989319</v>
       </c>
       <c r="Q2">
-        <v>30.04937082575367</v>
+        <v>75.27305598063201</v>
       </c>
       <c r="R2">
-        <v>270.444337431783</v>
+        <v>677.457503825688</v>
       </c>
       <c r="S2">
-        <v>0.0002773976005957717</v>
+        <v>0.0005708665888954792</v>
       </c>
       <c r="T2">
-        <v>0.0002773976005957717</v>
+        <v>0.0005708665888954791</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -605,16 +605,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>2.691042333333334</v>
+        <v>6.138319333333333</v>
       </c>
       <c r="H3">
-        <v>8.073127000000001</v>
+        <v>18.414958</v>
       </c>
       <c r="I3">
-        <v>0.002563467013859998</v>
+        <v>0.004764958906502185</v>
       </c>
       <c r="J3">
-        <v>0.002563467013859997</v>
+        <v>0.004764958906502184</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -626,25 +626,25 @@
         <v>2.664056333333333</v>
       </c>
       <c r="N3">
-        <v>7.992168999999999</v>
+        <v>7.992169</v>
       </c>
       <c r="O3">
-        <v>0.02581686581665055</v>
+        <v>0.02602728095065616</v>
       </c>
       <c r="P3">
-        <v>0.02581686581665055</v>
+        <v>0.02602728095065616</v>
       </c>
       <c r="Q3">
-        <v>7.169088371384778</v>
+        <v>16.35282849598911</v>
       </c>
       <c r="R3">
-        <v>64.52179534246299</v>
+        <v>147.175456463902</v>
       </c>
       <c r="S3">
-        <v>6.618068392223343E-05</v>
+        <v>0.0001240189241778637</v>
       </c>
       <c r="T3">
-        <v>6.618068392223341E-05</v>
+        <v>0.0001240189241778637</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -667,16 +667,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>2.691042333333334</v>
+        <v>6.138319333333333</v>
       </c>
       <c r="H4">
-        <v>8.073127000000001</v>
+        <v>18.414958</v>
       </c>
       <c r="I4">
-        <v>0.002563467013859998</v>
+        <v>0.004764958906502185</v>
       </c>
       <c r="J4">
-        <v>0.002563467013859997</v>
+        <v>0.004764958906502184</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -685,28 +685,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>28.483896</v>
+        <v>29.388223</v>
       </c>
       <c r="N4">
-        <v>85.451688</v>
+        <v>88.164669</v>
       </c>
       <c r="O4">
-        <v>0.2760320462320414</v>
+        <v>0.2871168777818144</v>
       </c>
       <c r="P4">
-        <v>0.2760320462320414</v>
+        <v>0.2871168777818144</v>
       </c>
       <c r="Q4">
-        <v>76.65136995426401</v>
+        <v>180.3942974132113</v>
       </c>
       <c r="R4">
-        <v>689.8623295883762</v>
+        <v>1623.548676718902</v>
       </c>
       <c r="S4">
-        <v>0.000707599045284116</v>
+        <v>0.001368100123993556</v>
       </c>
       <c r="T4">
-        <v>0.0007075990452841159</v>
+        <v>0.001368100123993555</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -729,16 +729,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>2.691042333333334</v>
+        <v>6.138319333333333</v>
       </c>
       <c r="H5">
-        <v>8.073127000000001</v>
+        <v>18.414958</v>
       </c>
       <c r="I5">
-        <v>0.002563467013859998</v>
+        <v>0.004764958906502185</v>
       </c>
       <c r="J5">
-        <v>0.002563467013859997</v>
+        <v>0.004764958906502184</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -747,28 +747,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>11.82329233333333</v>
+        <v>10.464594</v>
       </c>
       <c r="N5">
-        <v>35.469877</v>
+        <v>31.393782</v>
       </c>
       <c r="O5">
-        <v>0.1145772887237619</v>
+        <v>0.1022369251973591</v>
       </c>
       <c r="P5">
-        <v>0.1145772887237619</v>
+        <v>0.1022369251973591</v>
       </c>
       <c r="Q5">
-        <v>31.81698018837545</v>
+        <v>64.23501966568399</v>
       </c>
       <c r="R5">
-        <v>286.352821695379</v>
+        <v>578.115176991156</v>
       </c>
       <c r="S5">
-        <v>0.0002937151001808768</v>
+        <v>0.0004871547472925539</v>
       </c>
       <c r="T5">
-        <v>0.0002937151001808767</v>
+        <v>0.0004871547472925538</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,16 +791,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>2.691042333333334</v>
+        <v>6.138319333333333</v>
       </c>
       <c r="H6">
-        <v>8.073127000000001</v>
+        <v>18.414958</v>
       </c>
       <c r="I6">
-        <v>0.002563467013859998</v>
+        <v>0.004764958906502185</v>
       </c>
       <c r="J6">
-        <v>0.002563467013859997</v>
+        <v>0.004764958906502184</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -809,28 +809,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>21.43723033333333</v>
+        <v>21.08394233333334</v>
       </c>
       <c r="N6">
-        <v>64.311691</v>
+        <v>63.25182700000001</v>
       </c>
       <c r="O6">
-        <v>0.2077441426712689</v>
+        <v>0.2059857683153721</v>
       </c>
       <c r="P6">
-        <v>0.2077441426712689</v>
+        <v>0.2059857683153721</v>
       </c>
       <c r="Q6">
-        <v>57.68849433641745</v>
+        <v>129.4199708475851</v>
       </c>
       <c r="R6">
-        <v>519.196449027757</v>
+        <v>1164.779737628266</v>
       </c>
       <c r="S6">
-        <v>0.0005325452570604231</v>
+        <v>0.0009815137213470279</v>
       </c>
       <c r="T6">
-        <v>0.000532545257060423</v>
+        <v>0.0009815137213470277</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,16 +853,16 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>2.691042333333334</v>
+        <v>6.138319333333333</v>
       </c>
       <c r="H7">
-        <v>8.073127000000001</v>
+        <v>18.414958</v>
       </c>
       <c r="I7">
-        <v>0.002563467013859998</v>
+        <v>0.004764958906502185</v>
       </c>
       <c r="J7">
-        <v>0.002563467013859997</v>
+        <v>0.004764958906502184</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,28 +871,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>27.61562233333333</v>
+        <v>26.49267833333333</v>
       </c>
       <c r="N7">
-        <v>82.846867</v>
+        <v>79.47803500000001</v>
       </c>
       <c r="O7">
-        <v>0.2676177704286402</v>
+        <v>0.2588280035558662</v>
       </c>
       <c r="P7">
-        <v>0.2676177704286402</v>
+        <v>0.2588280035558662</v>
       </c>
       <c r="Q7">
-        <v>74.31480876034546</v>
+        <v>162.6205196052811</v>
       </c>
       <c r="R7">
-        <v>668.8332788431092</v>
+        <v>1463.58467644753</v>
       </c>
       <c r="S7">
-        <v>0.0006860293268165765</v>
+        <v>0.001233304800795704</v>
       </c>
       <c r="T7">
-        <v>0.0006860293268165764</v>
+        <v>0.001233304800795704</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -921,10 +921,10 @@
         <v>0.44662</v>
       </c>
       <c r="I8">
-        <v>0.0001418156357171331</v>
+        <v>0.0001155650719823529</v>
       </c>
       <c r="J8">
-        <v>0.0001418156357171331</v>
+        <v>0.0001155650719823529</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -933,28 +933,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>11.166443</v>
+        <v>12.262812</v>
       </c>
       <c r="N8">
-        <v>33.499329</v>
+        <v>36.788436</v>
       </c>
       <c r="O8">
-        <v>0.108211886127637</v>
+        <v>0.1198051441989319</v>
       </c>
       <c r="P8">
-        <v>0.108211886127637</v>
+        <v>0.1198051441989319</v>
       </c>
       <c r="Q8">
-        <v>1.662385590886666</v>
+        <v>1.82560569848</v>
       </c>
       <c r="R8">
-        <v>14.96147031798</v>
+        <v>16.43045128632</v>
       </c>
       <c r="S8">
-        <v>1.534613742334086E-05</v>
+        <v>1.384529011320574E-05</v>
       </c>
       <c r="T8">
-        <v>1.534613742334086E-05</v>
+        <v>1.384529011320574E-05</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -983,10 +983,10 @@
         <v>0.44662</v>
       </c>
       <c r="I9">
-        <v>0.0001418156357171331</v>
+        <v>0.0001155650719823529</v>
       </c>
       <c r="J9">
-        <v>0.0001418156357171331</v>
+        <v>0.0001155650719823529</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -998,25 +998,25 @@
         <v>2.664056333333333</v>
       </c>
       <c r="N9">
-        <v>7.992168999999999</v>
+        <v>7.992169</v>
       </c>
       <c r="O9">
-        <v>0.02581686581665055</v>
+        <v>0.02602728095065616</v>
       </c>
       <c r="P9">
-        <v>0.02581686581665055</v>
+        <v>0.02602728095065616</v>
       </c>
       <c r="Q9">
         <v>0.3966069465311111</v>
       </c>
       <c r="R9">
-        <v>3.569462518779999</v>
+        <v>3.56946251878</v>
       </c>
       <c r="S9">
-        <v>3.661235238012221E-06</v>
+        <v>3.007844596567503E-06</v>
       </c>
       <c r="T9">
-        <v>3.66123523801222E-06</v>
+        <v>3.007844596567502E-06</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1045,10 +1045,10 @@
         <v>0.44662</v>
       </c>
       <c r="I10">
-        <v>0.0001418156357171331</v>
+        <v>0.0001155650719823529</v>
       </c>
       <c r="J10">
-        <v>0.0001418156357171331</v>
+        <v>0.0001155650719823529</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1057,28 +1057,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>28.483896</v>
+        <v>29.388223</v>
       </c>
       <c r="N10">
-        <v>85.451688</v>
+        <v>88.164669</v>
       </c>
       <c r="O10">
-        <v>0.2760320462320414</v>
+        <v>0.2871168777818144</v>
       </c>
       <c r="P10">
-        <v>0.2760320462320414</v>
+        <v>0.2871168777818144</v>
       </c>
       <c r="Q10">
-        <v>4.24049254384</v>
+        <v>4.375122718753333</v>
       </c>
       <c r="R10">
-        <v>38.16443289456</v>
+        <v>39.37610446878001</v>
       </c>
       <c r="S10">
-        <v>3.914566011469804E-05</v>
+        <v>3.318068264820381E-05</v>
       </c>
       <c r="T10">
-        <v>3.914566011469804E-05</v>
+        <v>3.31806826482038E-05</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1107,10 +1107,10 @@
         <v>0.44662</v>
       </c>
       <c r="I11">
-        <v>0.0001418156357171331</v>
+        <v>0.0001155650719823529</v>
       </c>
       <c r="J11">
-        <v>0.0001418156357171331</v>
+        <v>0.0001155650719823529</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,28 +1119,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>11.82329233333333</v>
+        <v>10.464594</v>
       </c>
       <c r="N11">
-        <v>35.469877</v>
+        <v>31.393782</v>
       </c>
       <c r="O11">
-        <v>0.1145772887237619</v>
+        <v>0.1022369251973591</v>
       </c>
       <c r="P11">
-        <v>0.1145772887237619</v>
+        <v>0.1022369251973591</v>
       </c>
       <c r="Q11">
-        <v>1.760172940637778</v>
+        <v>1.55789899076</v>
       </c>
       <c r="R11">
-        <v>15.84155646574</v>
+        <v>14.02109091684</v>
       </c>
       <c r="S11">
-        <v>1.624885103910581E-05</v>
+        <v>1.181501761968724E-05</v>
       </c>
       <c r="T11">
-        <v>1.62488510391058E-05</v>
+        <v>1.181501761968724E-05</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1169,10 +1169,10 @@
         <v>0.44662</v>
       </c>
       <c r="I12">
-        <v>0.0001418156357171331</v>
+        <v>0.0001155650719823529</v>
       </c>
       <c r="J12">
-        <v>0.0001418156357171331</v>
+        <v>0.0001155650719823529</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1181,28 +1181,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>21.43723033333333</v>
+        <v>21.08394233333334</v>
       </c>
       <c r="N12">
-        <v>64.311691</v>
+        <v>63.25182700000001</v>
       </c>
       <c r="O12">
-        <v>0.2077441426712689</v>
+        <v>0.2059857683153721</v>
       </c>
       <c r="P12">
-        <v>0.2077441426712689</v>
+        <v>0.2059857683153721</v>
       </c>
       <c r="Q12">
-        <v>3.191431937157778</v>
+        <v>3.138836774971112</v>
       </c>
       <c r="R12">
-        <v>28.72288743442</v>
+        <v>28.24953097474</v>
       </c>
       <c r="S12">
-        <v>2.946136765943681E-05</v>
+        <v>2.380476014270625E-05</v>
       </c>
       <c r="T12">
-        <v>2.946136765943681E-05</v>
+        <v>2.380476014270625E-05</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1231,10 +1231,10 @@
         <v>0.44662</v>
       </c>
       <c r="I13">
-        <v>0.0001418156357171331</v>
+        <v>0.0001155650719823529</v>
       </c>
       <c r="J13">
-        <v>0.0001418156357171331</v>
+        <v>0.0001155650719823529</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1243,28 +1243,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>27.61562233333333</v>
+        <v>26.49267833333333</v>
       </c>
       <c r="N13">
-        <v>82.846867</v>
+        <v>79.47803500000001</v>
       </c>
       <c r="O13">
-        <v>0.2676177704286402</v>
+        <v>0.2588280035558662</v>
       </c>
       <c r="P13">
-        <v>0.2676177704286402</v>
+        <v>0.2588280035558662</v>
       </c>
       <c r="Q13">
-        <v>4.111229748837778</v>
+        <v>3.944053332411111</v>
       </c>
       <c r="R13">
-        <v>37.00106773954</v>
+        <v>35.49647999170001</v>
       </c>
       <c r="S13">
-        <v>3.79523842425394E-05</v>
+        <v>2.991147686198238E-05</v>
       </c>
       <c r="T13">
-        <v>3.795238424253939E-05</v>
+        <v>2.991147686198238E-05</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1287,16 +1287,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>68.93732566666667</v>
+        <v>99.42139933333334</v>
       </c>
       <c r="H14">
-        <v>206.811977</v>
+        <v>298.264198</v>
       </c>
       <c r="I14">
-        <v>0.06566918631537351</v>
+        <v>0.07717729504193446</v>
       </c>
       <c r="J14">
-        <v>0.06566918631537351</v>
+        <v>0.07717729504193445</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1305,28 +1305,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>11.166443</v>
+        <v>12.262812</v>
       </c>
       <c r="N14">
-        <v>33.499329</v>
+        <v>36.788436</v>
       </c>
       <c r="O14">
-        <v>0.108211886127637</v>
+        <v>0.1198051441989319</v>
       </c>
       <c r="P14">
-        <v>0.108211886127637</v>
+        <v>0.1198051441989319</v>
       </c>
       <c r="Q14">
-        <v>769.7847176292703</v>
+        <v>1219.185928801592</v>
       </c>
       <c r="R14">
-        <v>6928.062458663432</v>
+        <v>10972.67335921433</v>
       </c>
       <c r="S14">
-        <v>0.007106186511653775</v>
+        <v>0.009246236961382473</v>
       </c>
       <c r="T14">
-        <v>0.007106186511653775</v>
+        <v>0.00924623696138247</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1349,16 +1349,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>68.93732566666667</v>
+        <v>99.42139933333334</v>
       </c>
       <c r="H15">
-        <v>206.811977</v>
+        <v>298.264198</v>
       </c>
       <c r="I15">
-        <v>0.06566918631537351</v>
+        <v>0.07717729504193446</v>
       </c>
       <c r="J15">
-        <v>0.06566918631537351</v>
+        <v>0.07717729504193445</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1370,25 +1370,25 @@
         <v>2.664056333333333</v>
       </c>
       <c r="N15">
-        <v>7.992168999999999</v>
+        <v>7.992169</v>
       </c>
       <c r="O15">
-        <v>0.02581686581665055</v>
+        <v>0.02602728095065616</v>
       </c>
       <c r="P15">
-        <v>0.02581686581665055</v>
+        <v>0.02602728095065616</v>
       </c>
       <c r="Q15">
-        <v>183.6529190453459</v>
+        <v>264.8642085628291</v>
       </c>
       <c r="R15">
-        <v>1652.876271408113</v>
+        <v>2383.777877065462</v>
       </c>
       <c r="S15">
-        <v>0.001695372571392622</v>
+        <v>0.002008715141068112</v>
       </c>
       <c r="T15">
-        <v>0.001695372571392622</v>
+        <v>0.00200871514106811</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1411,16 +1411,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>68.93732566666667</v>
+        <v>99.42139933333334</v>
       </c>
       <c r="H16">
-        <v>206.811977</v>
+        <v>298.264198</v>
       </c>
       <c r="I16">
-        <v>0.06566918631537351</v>
+        <v>0.07717729504193446</v>
       </c>
       <c r="J16">
-        <v>0.06566918631537351</v>
+        <v>0.07717729504193445</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1429,28 +1429,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>28.483896</v>
+        <v>29.388223</v>
       </c>
       <c r="N16">
-        <v>85.451688</v>
+        <v>88.164669</v>
       </c>
       <c r="O16">
-        <v>0.2760320462320414</v>
+        <v>0.2871168777818144</v>
       </c>
       <c r="P16">
-        <v>0.2760320462320414</v>
+        <v>0.2871168777818144</v>
       </c>
       <c r="Q16">
-        <v>1963.603614807464</v>
+        <v>2921.818254580051</v>
       </c>
       <c r="R16">
-        <v>17672.43253326718</v>
+        <v>26296.36429122046</v>
       </c>
       <c r="S16">
-        <v>0.01812679987302572</v>
+        <v>0.02215890398808613</v>
       </c>
       <c r="T16">
-        <v>0.01812679987302572</v>
+        <v>0.02215890398808612</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1473,16 +1473,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>68.93732566666667</v>
+        <v>99.42139933333334</v>
       </c>
       <c r="H17">
-        <v>206.811977</v>
+        <v>298.264198</v>
       </c>
       <c r="I17">
-        <v>0.06566918631537351</v>
+        <v>0.07717729504193446</v>
       </c>
       <c r="J17">
-        <v>0.06566918631537351</v>
+        <v>0.07717729504193445</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1491,28 +1491,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>11.82329233333333</v>
+        <v>10.464594</v>
       </c>
       <c r="N17">
-        <v>35.469877</v>
+        <v>31.393782</v>
       </c>
       <c r="O17">
-        <v>0.1145772887237619</v>
+        <v>0.1022369251973591</v>
       </c>
       <c r="P17">
-        <v>0.1145772887237619</v>
+        <v>0.1022369251973591</v>
       </c>
       <c r="Q17">
-        <v>815.0661540352032</v>
+        <v>1040.404578935204</v>
       </c>
       <c r="R17">
-        <v>7335.595386316829</v>
+        <v>9363.641210416838</v>
       </c>
       <c r="S17">
-        <v>0.007524197320711066</v>
+        <v>0.007890369340136767</v>
       </c>
       <c r="T17">
-        <v>0.007524197320711065</v>
+        <v>0.007890369340136765</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1535,16 +1535,16 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>68.93732566666667</v>
+        <v>99.42139933333334</v>
       </c>
       <c r="H18">
-        <v>206.811977</v>
+        <v>298.264198</v>
       </c>
       <c r="I18">
-        <v>0.06566918631537351</v>
+        <v>0.07717729504193446</v>
       </c>
       <c r="J18">
-        <v>0.06566918631537351</v>
+        <v>0.07717729504193445</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1553,28 +1553,28 @@
         <v>1</v>
       </c>
       <c r="M18">
-        <v>21.43723033333333</v>
+        <v>21.08394233333334</v>
       </c>
       <c r="N18">
-        <v>64.311691</v>
+        <v>63.25182700000001</v>
       </c>
       <c r="O18">
-        <v>0.2077441426712689</v>
+        <v>0.2059857683153721</v>
       </c>
       <c r="P18">
-        <v>0.2077441426712689</v>
+        <v>0.2059857683153721</v>
       </c>
       <c r="Q18">
-        <v>1477.825328880345</v>
+        <v>2096.195050243306</v>
       </c>
       <c r="R18">
-        <v>13300.42795992311</v>
+        <v>18865.75545218975</v>
       </c>
       <c r="S18">
-        <v>0.0136423888110071</v>
+        <v>0.01589742441571503</v>
       </c>
       <c r="T18">
-        <v>0.0136423888110071</v>
+        <v>0.01589742441571503</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1597,16 +1597,16 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>68.93732566666667</v>
+        <v>99.42139933333334</v>
       </c>
       <c r="H19">
-        <v>206.811977</v>
+        <v>298.264198</v>
       </c>
       <c r="I19">
-        <v>0.06566918631537351</v>
+        <v>0.07717729504193446</v>
       </c>
       <c r="J19">
-        <v>0.06566918631537351</v>
+        <v>0.07717729504193445</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1615,28 +1615,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>27.61562233333333</v>
+        <v>26.49267833333333</v>
       </c>
       <c r="N19">
-        <v>82.846867</v>
+        <v>79.47803500000001</v>
       </c>
       <c r="O19">
-        <v>0.2676177704286402</v>
+        <v>0.2588280035558662</v>
       </c>
       <c r="P19">
-        <v>0.2676177704286402</v>
+        <v>0.2588280035558662</v>
       </c>
       <c r="Q19">
-        <v>1903.747150280673</v>
+        <v>2633.939151987881</v>
       </c>
       <c r="R19">
-        <v>17133.72435252606</v>
+        <v>23705.45236789093</v>
       </c>
       <c r="S19">
-        <v>0.01757424122758322</v>
+        <v>0.01997564519554595</v>
       </c>
       <c r="T19">
-        <v>0.01757424122758322</v>
+        <v>0.01997564519554594</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1659,16 +1659,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G20">
-        <v>0.06334266666666667</v>
+        <v>0.05047966666666667</v>
       </c>
       <c r="H20">
-        <v>0.190028</v>
+        <v>0.151439</v>
       </c>
       <c r="I20">
-        <v>6.033975555070391E-05</v>
+        <v>3.918556924440362E-05</v>
       </c>
       <c r="J20">
-        <v>6.03397555507039E-05</v>
+        <v>3.918556924440361E-05</v>
       </c>
       <c r="K20">
         <v>3</v>
@@ -1677,28 +1677,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>11.166443</v>
+        <v>12.262812</v>
       </c>
       <c r="N20">
-        <v>33.499329</v>
+        <v>36.788436</v>
       </c>
       <c r="O20">
-        <v>0.108211886127637</v>
+        <v>0.1198051441989319</v>
       </c>
       <c r="P20">
-        <v>0.108211886127637</v>
+        <v>0.1198051441989319</v>
       </c>
       <c r="Q20">
-        <v>0.7073122768013334</v>
+        <v>0.6190226621560001</v>
       </c>
       <c r="R20">
-        <v>6.365810491212</v>
+        <v>5.571203959404</v>
       </c>
       <c r="S20">
-        <v>6.529478756622224E-06</v>
+        <v>4.694632773843008E-06</v>
       </c>
       <c r="T20">
-        <v>6.529478756622222E-06</v>
+        <v>4.694632773843006E-06</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1721,16 +1721,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G21">
-        <v>0.06334266666666667</v>
+        <v>0.05047966666666667</v>
       </c>
       <c r="H21">
-        <v>0.190028</v>
+        <v>0.151439</v>
       </c>
       <c r="I21">
-        <v>6.033975555070391E-05</v>
+        <v>3.918556924440362E-05</v>
       </c>
       <c r="J21">
-        <v>6.03397555507039E-05</v>
+        <v>3.918556924440361E-05</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1742,25 +1742,25 @@
         <v>2.664056333333333</v>
       </c>
       <c r="N21">
-        <v>7.992168999999999</v>
+        <v>7.992169</v>
       </c>
       <c r="O21">
-        <v>0.02581686581665055</v>
+        <v>0.02602728095065616</v>
       </c>
       <c r="P21">
-        <v>0.02581686581665055</v>
+        <v>0.02602728095065616</v>
       </c>
       <c r="Q21">
-        <v>0.1687484323035555</v>
+        <v>0.1344806756878889</v>
       </c>
       <c r="R21">
-        <v>1.518735890732</v>
+        <v>1.210326081191</v>
       </c>
       <c r="S21">
-        <v>1.557783372462018E-06</v>
+        <v>1.019893819935484E-06</v>
       </c>
       <c r="T21">
-        <v>1.557783372462017E-06</v>
+        <v>1.019893819935484E-06</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1783,16 +1783,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G22">
-        <v>0.06334266666666667</v>
+        <v>0.05047966666666667</v>
       </c>
       <c r="H22">
-        <v>0.190028</v>
+        <v>0.151439</v>
       </c>
       <c r="I22">
-        <v>6.033975555070391E-05</v>
+        <v>3.918556924440362E-05</v>
       </c>
       <c r="J22">
-        <v>6.03397555507039E-05</v>
+        <v>3.918556924440361E-05</v>
       </c>
       <c r="K22">
         <v>3</v>
@@ -1801,28 +1801,28 @@
         <v>1</v>
       </c>
       <c r="M22">
-        <v>28.483896</v>
+        <v>29.388223</v>
       </c>
       <c r="N22">
-        <v>85.451688</v>
+        <v>88.164669</v>
       </c>
       <c r="O22">
-        <v>0.2760320462320414</v>
+        <v>0.2871168777818144</v>
       </c>
       <c r="P22">
-        <v>0.2760320462320414</v>
+        <v>0.2871168777818144</v>
       </c>
       <c r="Q22">
-        <v>1.804245929696</v>
+        <v>1.483507700965667</v>
       </c>
       <c r="R22">
-        <v>16.238213367264</v>
+        <v>13.351569308691</v>
       </c>
       <c r="S22">
-        <v>1.665570619380198E-05</v>
+        <v>1.125083829555626E-05</v>
       </c>
       <c r="T22">
-        <v>1.665570619380198E-05</v>
+        <v>1.125083829555626E-05</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1845,16 +1845,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G23">
-        <v>0.06334266666666667</v>
+        <v>0.05047966666666667</v>
       </c>
       <c r="H23">
-        <v>0.190028</v>
+        <v>0.151439</v>
       </c>
       <c r="I23">
-        <v>6.033975555070391E-05</v>
+        <v>3.918556924440362E-05</v>
       </c>
       <c r="J23">
-        <v>6.03397555507039E-05</v>
+        <v>3.918556924440361E-05</v>
       </c>
       <c r="K23">
         <v>3</v>
@@ -1863,28 +1863,28 @@
         <v>1</v>
       </c>
       <c r="M23">
-        <v>11.82329233333333</v>
+        <v>10.464594</v>
       </c>
       <c r="N23">
-        <v>35.469877</v>
+        <v>31.393782</v>
       </c>
       <c r="O23">
-        <v>0.1145772887237619</v>
+        <v>0.1022369251973591</v>
       </c>
       <c r="P23">
-        <v>0.1145772887237619</v>
+        <v>0.1022369251973591</v>
       </c>
       <c r="Q23">
-        <v>0.748918865172889</v>
+        <v>0.528249216922</v>
       </c>
       <c r="R23">
-        <v>6.740269786556</v>
+        <v>4.754242952298</v>
       </c>
       <c r="S23">
-        <v>6.913565593254219E-06</v>
+        <v>4.006212111656028E-06</v>
       </c>
       <c r="T23">
-        <v>6.913565593254216E-06</v>
+        <v>4.006212111656028E-06</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1907,16 +1907,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G24">
-        <v>0.06334266666666667</v>
+        <v>0.05047966666666667</v>
       </c>
       <c r="H24">
-        <v>0.190028</v>
+        <v>0.151439</v>
       </c>
       <c r="I24">
-        <v>6.033975555070391E-05</v>
+        <v>3.918556924440362E-05</v>
       </c>
       <c r="J24">
-        <v>6.03397555507039E-05</v>
+        <v>3.918556924440361E-05</v>
       </c>
       <c r="K24">
         <v>3</v>
@@ -1925,28 +1925,28 @@
         <v>1</v>
       </c>
       <c r="M24">
-        <v>21.43723033333333</v>
+        <v>21.08394233333334</v>
       </c>
       <c r="N24">
-        <v>64.311691</v>
+        <v>63.25182700000001</v>
       </c>
       <c r="O24">
-        <v>0.2077441426712689</v>
+        <v>0.2059857683153721</v>
       </c>
       <c r="P24">
-        <v>0.2077441426712689</v>
+        <v>0.2059857683153721</v>
       </c>
       <c r="Q24">
-        <v>1.357891335260889</v>
+        <v>1.064310381005889</v>
       </c>
       <c r="R24">
-        <v>12.221022017348</v>
+        <v>9.578793429053</v>
       </c>
       <c r="S24">
-        <v>1.253523078587493E-05</v>
+        <v>8.071669587683696E-06</v>
       </c>
       <c r="T24">
-        <v>1.253523078587492E-05</v>
+        <v>8.071669587683693E-06</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1969,16 +1969,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G25">
-        <v>0.06334266666666667</v>
+        <v>0.05047966666666667</v>
       </c>
       <c r="H25">
-        <v>0.190028</v>
+        <v>0.151439</v>
       </c>
       <c r="I25">
-        <v>6.033975555070391E-05</v>
+        <v>3.918556924440362E-05</v>
       </c>
       <c r="J25">
-        <v>6.03397555507039E-05</v>
+        <v>3.918556924440361E-05</v>
       </c>
       <c r="K25">
         <v>3</v>
@@ -1987,28 +1987,28 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <v>27.61562233333333</v>
+        <v>26.49267833333333</v>
       </c>
       <c r="N25">
-        <v>82.846867</v>
+        <v>79.47803500000001</v>
       </c>
       <c r="O25">
-        <v>0.2676177704286402</v>
+        <v>0.2588280035558662</v>
       </c>
       <c r="P25">
-        <v>0.2676177704286402</v>
+        <v>0.2588280035558662</v>
       </c>
       <c r="Q25">
-        <v>1.749247160252889</v>
+        <v>1.337341571373889</v>
       </c>
       <c r="R25">
-        <v>15.743224442276</v>
+        <v>12.036074142365</v>
       </c>
       <c r="S25">
-        <v>1.614799084868855E-05</v>
+        <v>1.014232265572914E-05</v>
       </c>
       <c r="T25">
-        <v>1.614799084868854E-05</v>
+        <v>1.014232265572914E-05</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2031,16 +2031,16 @@
         <v>1</v>
       </c>
       <c r="G26">
-        <v>914.2618206666666</v>
+        <v>1122.542338</v>
       </c>
       <c r="H26">
-        <v>2742.785462</v>
+        <v>3367.627014</v>
       </c>
       <c r="I26">
-        <v>0.8709190451149539</v>
+        <v>0.8713896786588738</v>
       </c>
       <c r="J26">
-        <v>0.8709190451149538</v>
+        <v>0.8713896786588738</v>
       </c>
       <c r="K26">
         <v>3</v>
@@ -2049,28 +2049,28 @@
         <v>1</v>
       </c>
       <c r="M26">
-        <v>11.166443</v>
+        <v>12.262812</v>
       </c>
       <c r="N26">
-        <v>33.499329</v>
+        <v>36.788436</v>
       </c>
       <c r="O26">
-        <v>0.108211886127637</v>
+        <v>0.1198051441989319</v>
       </c>
       <c r="P26">
-        <v>0.108211886127637</v>
+        <v>0.1198051441989319</v>
       </c>
       <c r="Q26">
-        <v>10209.05250755055</v>
+        <v>13765.52565293446</v>
       </c>
       <c r="R26">
-        <v>91881.47256795497</v>
+        <v>123889.7308764101</v>
       </c>
       <c r="S26">
-        <v>0.09424379253636973</v>
+        <v>0.1043969661051873</v>
       </c>
       <c r="T26">
-        <v>0.09424379253636972</v>
+        <v>0.1043969661051873</v>
       </c>
     </row>
     <row r="27" spans="1:20">
@@ -2093,16 +2093,16 @@
         <v>1</v>
       </c>
       <c r="G27">
-        <v>914.2618206666666</v>
+        <v>1122.542338</v>
       </c>
       <c r="H27">
-        <v>2742.785462</v>
+        <v>3367.627014</v>
       </c>
       <c r="I27">
-        <v>0.8709190451149539</v>
+        <v>0.8713896786588738</v>
       </c>
       <c r="J27">
-        <v>0.8709190451149538</v>
+        <v>0.8713896786588738</v>
       </c>
       <c r="K27">
         <v>3</v>
@@ -2114,25 +2114,25 @@
         <v>2.664056333333333</v>
       </c>
       <c r="N27">
-        <v>7.992168999999999</v>
+        <v>7.992169</v>
       </c>
       <c r="O27">
-        <v>0.02581686581665055</v>
+        <v>0.02602728095065616</v>
       </c>
       <c r="P27">
-        <v>0.02581686581665055</v>
+        <v>0.02602728095065616</v>
       </c>
       <c r="Q27">
-        <v>2435.644993671897</v>
+        <v>2990.516024983707</v>
       </c>
       <c r="R27">
-        <v>21920.80494304707</v>
+        <v>26914.64422485337</v>
       </c>
       <c r="S27">
-        <v>0.02248440012489819</v>
+        <v>0.0226799039839565</v>
       </c>
       <c r="T27">
-        <v>0.02248440012489819</v>
+        <v>0.0226799039839565</v>
       </c>
     </row>
     <row r="28" spans="1:20">
@@ -2155,16 +2155,16 @@
         <v>1</v>
       </c>
       <c r="G28">
-        <v>914.2618206666666</v>
+        <v>1122.542338</v>
       </c>
       <c r="H28">
-        <v>2742.785462</v>
+        <v>3367.627014</v>
       </c>
       <c r="I28">
-        <v>0.8709190451149539</v>
+        <v>0.8713896786588738</v>
       </c>
       <c r="J28">
-        <v>0.8709190451149538</v>
+        <v>0.8713896786588738</v>
       </c>
       <c r="K28">
         <v>3</v>
@@ -2173,28 +2173,28 @@
         <v>1</v>
       </c>
       <c r="M28">
-        <v>28.483896</v>
+        <v>29.388223</v>
       </c>
       <c r="N28">
-        <v>85.451688</v>
+        <v>88.164669</v>
       </c>
       <c r="O28">
-        <v>0.2760320462320414</v>
+        <v>0.2871168777818144</v>
       </c>
       <c r="P28">
-        <v>0.2760320462320414</v>
+        <v>0.2871168777818144</v>
       </c>
       <c r="Q28">
-        <v>26041.73861663998</v>
+        <v>32989.52455608537</v>
       </c>
       <c r="R28">
-        <v>234375.6475497599</v>
+        <v>296905.7210047684</v>
       </c>
       <c r="S28">
-        <v>0.2404015661255363</v>
+        <v>0.2501906838678344</v>
       </c>
       <c r="T28">
-        <v>0.2404015661255363</v>
+        <v>0.2501906838678344</v>
       </c>
     </row>
     <row r="29" spans="1:20">
@@ -2217,16 +2217,16 @@
         <v>1</v>
       </c>
       <c r="G29">
-        <v>914.2618206666666</v>
+        <v>1122.542338</v>
       </c>
       <c r="H29">
-        <v>2742.785462</v>
+        <v>3367.627014</v>
       </c>
       <c r="I29">
-        <v>0.8709190451149539</v>
+        <v>0.8713896786588738</v>
       </c>
       <c r="J29">
-        <v>0.8709190451149538</v>
+        <v>0.8713896786588738</v>
       </c>
       <c r="K29">
         <v>3</v>
@@ -2235,28 +2235,28 @@
         <v>1</v>
       </c>
       <c r="M29">
-        <v>11.82329233333333</v>
+        <v>10.464594</v>
       </c>
       <c r="N29">
-        <v>35.469877</v>
+        <v>31.393782</v>
       </c>
       <c r="O29">
-        <v>0.1145772887237619</v>
+        <v>0.1022369251973591</v>
       </c>
       <c r="P29">
-        <v>0.1145772887237619</v>
+        <v>0.1022369251973591</v>
       </c>
       <c r="Q29">
-        <v>10809.58477494757</v>
+        <v>11746.94981498077</v>
       </c>
       <c r="R29">
-        <v>97286.26297452816</v>
+        <v>105722.548334827</v>
       </c>
       <c r="S29">
-        <v>0.0997875428871591</v>
+        <v>0.08908820139479807</v>
       </c>
       <c r="T29">
-        <v>0.09978754288715909</v>
+        <v>0.08908820139479807</v>
       </c>
     </row>
     <row r="30" spans="1:20">
@@ -2279,16 +2279,16 @@
         <v>1</v>
       </c>
       <c r="G30">
-        <v>914.2618206666666</v>
+        <v>1122.542338</v>
       </c>
       <c r="H30">
-        <v>2742.785462</v>
+        <v>3367.627014</v>
       </c>
       <c r="I30">
-        <v>0.8709190451149539</v>
+        <v>0.8713896786588738</v>
       </c>
       <c r="J30">
-        <v>0.8709190451149538</v>
+        <v>0.8713896786588738</v>
       </c>
       <c r="K30">
         <v>3</v>
@@ -2297,28 +2297,28 @@
         <v>1</v>
       </c>
       <c r="M30">
-        <v>21.43723033333333</v>
+        <v>21.08394233333334</v>
       </c>
       <c r="N30">
-        <v>64.311691</v>
+        <v>63.25182700000001</v>
       </c>
       <c r="O30">
-        <v>0.2077441426712689</v>
+        <v>0.2059857683153721</v>
       </c>
       <c r="P30">
-        <v>0.2077441426712689</v>
+        <v>0.2059857683153721</v>
       </c>
       <c r="Q30">
-        <v>19599.24123460403</v>
+        <v>23667.61792111718</v>
       </c>
       <c r="R30">
-        <v>176393.1711114362</v>
+        <v>213008.5612900546</v>
       </c>
       <c r="S30">
-        <v>0.1809283303634863</v>
+        <v>0.1794938724606334</v>
       </c>
       <c r="T30">
-        <v>0.1809283303634863</v>
+        <v>0.1794938724606333</v>
       </c>
     </row>
     <row r="31" spans="1:20">
@@ -2341,16 +2341,16 @@
         <v>1</v>
       </c>
       <c r="G31">
-        <v>914.2618206666666</v>
+        <v>1122.542338</v>
       </c>
       <c r="H31">
-        <v>2742.785462</v>
+        <v>3367.627014</v>
       </c>
       <c r="I31">
-        <v>0.8709190451149539</v>
+        <v>0.8713896786588738</v>
       </c>
       <c r="J31">
-        <v>0.8709190451149538</v>
+        <v>0.8713896786588738</v>
       </c>
       <c r="K31">
         <v>3</v>
@@ -2359,28 +2359,28 @@
         <v>1</v>
       </c>
       <c r="M31">
-        <v>27.61562233333333</v>
+        <v>26.49267833333333</v>
       </c>
       <c r="N31">
-        <v>82.846867</v>
+        <v>79.47803500000001</v>
       </c>
       <c r="O31">
-        <v>0.2676177704286402</v>
+        <v>0.2588280035558662</v>
       </c>
       <c r="P31">
-        <v>0.2676177704286402</v>
+        <v>0.2588280035558662</v>
       </c>
       <c r="Q31">
-        <v>25247.9091533164</v>
+        <v>29739.15307618194</v>
       </c>
       <c r="R31">
-        <v>227231.1823798475</v>
+        <v>267652.3776856375</v>
       </c>
       <c r="S31">
-        <v>0.2330734130775042</v>
+        <v>0.2255400508464641</v>
       </c>
       <c r="T31">
-        <v>0.2330734130775042</v>
+        <v>0.2255400508464641</v>
       </c>
     </row>
     <row r="32" spans="1:20">
@@ -2403,16 +2403,16 @@
         <v>1</v>
       </c>
       <c r="G32">
-        <v>63.66430533333334</v>
+        <v>59.91942366666666</v>
       </c>
       <c r="H32">
-        <v>190.992916</v>
+        <v>179.758271</v>
       </c>
       <c r="I32">
-        <v>0.06064614616454483</v>
+        <v>0.04651331675146277</v>
       </c>
       <c r="J32">
-        <v>0.06064614616454482</v>
+        <v>0.04651331675146277</v>
       </c>
       <c r="K32">
         <v>3</v>
@@ -2421,28 +2421,28 @@
         <v>1</v>
       </c>
       <c r="M32">
-        <v>11.166443</v>
+        <v>12.262812</v>
       </c>
       <c r="N32">
-        <v>33.499329</v>
+        <v>36.788436</v>
       </c>
       <c r="O32">
-        <v>0.108211886127637</v>
+        <v>0.1198051441989319</v>
       </c>
       <c r="P32">
-        <v>0.108211886127637</v>
+        <v>0.1198051441989319</v>
       </c>
       <c r="Q32">
-        <v>710.9038366392626</v>
+        <v>734.780627572684</v>
       </c>
       <c r="R32">
-        <v>6398.134529753363</v>
+        <v>6613.025648154156</v>
       </c>
       <c r="S32">
-        <v>0.006562633862837754</v>
+        <v>0.005572534620579593</v>
       </c>
       <c r="T32">
-        <v>0.006562633862837753</v>
+        <v>0.005572534620579592</v>
       </c>
     </row>
     <row r="33" spans="1:20">
@@ -2465,16 +2465,16 @@
         <v>1</v>
       </c>
       <c r="G33">
-        <v>63.66430533333334</v>
+        <v>59.91942366666666</v>
       </c>
       <c r="H33">
-        <v>190.992916</v>
+        <v>179.758271</v>
       </c>
       <c r="I33">
-        <v>0.06064614616454483</v>
+        <v>0.04651331675146277</v>
       </c>
       <c r="J33">
-        <v>0.06064614616454482</v>
+        <v>0.04651331675146277</v>
       </c>
       <c r="K33">
         <v>3</v>
@@ -2486,25 +2486,25 @@
         <v>2.664056333333333</v>
       </c>
       <c r="N33">
-        <v>7.992168999999999</v>
+        <v>7.992169</v>
       </c>
       <c r="O33">
-        <v>0.02581686581665055</v>
+        <v>0.02602728095065616</v>
       </c>
       <c r="P33">
-        <v>0.02581686581665055</v>
+        <v>0.02602728095065616</v>
       </c>
       <c r="Q33">
-        <v>169.6052958305338</v>
+        <v>159.6287201088665</v>
       </c>
       <c r="R33">
-        <v>1526.447662474804</v>
+        <v>1436.658480979799</v>
       </c>
       <c r="S33">
-        <v>0.00156569341782703</v>
+        <v>0.001210615163037183</v>
       </c>
       <c r="T33">
-        <v>0.00156569341782703</v>
+        <v>0.001210615163037183</v>
       </c>
     </row>
     <row r="34" spans="1:20">
@@ -2527,16 +2527,16 @@
         <v>1</v>
       </c>
       <c r="G34">
-        <v>63.66430533333334</v>
+        <v>59.91942366666666</v>
       </c>
       <c r="H34">
-        <v>190.992916</v>
+        <v>179.758271</v>
       </c>
       <c r="I34">
-        <v>0.06064614616454483</v>
+        <v>0.04651331675146277</v>
       </c>
       <c r="J34">
-        <v>0.06064614616454482</v>
+        <v>0.04651331675146277</v>
       </c>
       <c r="K34">
         <v>3</v>
@@ -2545,28 +2545,28 @@
         <v>1</v>
       </c>
       <c r="M34">
-        <v>28.483896</v>
+        <v>29.388223</v>
       </c>
       <c r="N34">
-        <v>85.451688</v>
+        <v>88.164669</v>
       </c>
       <c r="O34">
-        <v>0.2760320462320414</v>
+        <v>0.2871168777818144</v>
       </c>
       <c r="P34">
-        <v>0.2760320462320414</v>
+        <v>0.2871168777818144</v>
       </c>
       <c r="Q34">
-        <v>1813.407452026912</v>
+        <v>1760.925384747477</v>
       </c>
       <c r="R34">
-        <v>16320.66706824221</v>
+        <v>15848.3284627273</v>
       </c>
       <c r="S34">
-        <v>0.01674027982188678</v>
+        <v>0.01335475828095656</v>
       </c>
       <c r="T34">
-        <v>0.01674027982188678</v>
+        <v>0.01335475828095655</v>
       </c>
     </row>
     <row r="35" spans="1:20">
@@ -2589,16 +2589,16 @@
         <v>1</v>
       </c>
       <c r="G35">
-        <v>63.66430533333334</v>
+        <v>59.91942366666666</v>
       </c>
       <c r="H35">
-        <v>190.992916</v>
+        <v>179.758271</v>
       </c>
       <c r="I35">
-        <v>0.06064614616454483</v>
+        <v>0.04651331675146277</v>
       </c>
       <c r="J35">
-        <v>0.06064614616454482</v>
+        <v>0.04651331675146277</v>
       </c>
       <c r="K35">
         <v>3</v>
@@ -2607,28 +2607,28 @@
         <v>1</v>
       </c>
       <c r="M35">
-        <v>11.82329233333333</v>
+        <v>10.464594</v>
       </c>
       <c r="N35">
-        <v>35.469877</v>
+        <v>31.393782</v>
       </c>
       <c r="O35">
-        <v>0.1145772887237619</v>
+        <v>0.1022369251973591</v>
       </c>
       <c r="P35">
-        <v>0.1145772887237619</v>
+        <v>0.1022369251973591</v>
       </c>
       <c r="Q35">
-        <v>752.7216931545925</v>
+        <v>627.0324413856579</v>
       </c>
       <c r="R35">
-        <v>6774.495238391331</v>
+        <v>5643.291972470922</v>
       </c>
       <c r="S35">
-        <v>0.00694867099907852</v>
+        <v>0.004755378485400369</v>
       </c>
       <c r="T35">
-        <v>0.006948670999078518</v>
+        <v>0.004755378485400369</v>
       </c>
     </row>
     <row r="36" spans="1:20">
@@ -2651,16 +2651,16 @@
         <v>1</v>
       </c>
       <c r="G36">
-        <v>63.66430533333334</v>
+        <v>59.91942366666666</v>
       </c>
       <c r="H36">
-        <v>190.992916</v>
+        <v>179.758271</v>
       </c>
       <c r="I36">
-        <v>0.06064614616454483</v>
+        <v>0.04651331675146277</v>
       </c>
       <c r="J36">
-        <v>0.06064614616454482</v>
+        <v>0.04651331675146277</v>
       </c>
       <c r="K36">
         <v>3</v>
@@ -2669,28 +2669,28 @@
         <v>1</v>
       </c>
       <c r="M36">
-        <v>21.43723033333333</v>
+        <v>21.08394233333334</v>
       </c>
       <c r="N36">
-        <v>64.311691</v>
+        <v>63.25182700000001</v>
       </c>
       <c r="O36">
-        <v>0.2077441426712689</v>
+        <v>0.2059857683153721</v>
       </c>
       <c r="P36">
-        <v>0.2077441426712689</v>
+        <v>0.2059857683153721</v>
       </c>
       <c r="Q36">
-        <v>1364.786377442329</v>
+        <v>1263.337673234569</v>
       </c>
       <c r="R36">
-        <v>12283.07739698096</v>
+        <v>11370.03905911112</v>
       </c>
       <c r="S36">
-        <v>0.01259888164126983</v>
+        <v>0.009581081287946326</v>
       </c>
       <c r="T36">
-        <v>0.01259888164126983</v>
+        <v>0.009581081287946325</v>
       </c>
     </row>
     <row r="37" spans="1:20">
@@ -2713,16 +2713,16 @@
         <v>1</v>
       </c>
       <c r="G37">
-        <v>63.66430533333334</v>
+        <v>59.91942366666666</v>
       </c>
       <c r="H37">
-        <v>190.992916</v>
+        <v>179.758271</v>
       </c>
       <c r="I37">
-        <v>0.06064614616454483</v>
+        <v>0.04651331675146277</v>
       </c>
       <c r="J37">
-        <v>0.06064614616454482</v>
+        <v>0.04651331675146277</v>
       </c>
       <c r="K37">
         <v>3</v>
@@ -2731,28 +2731,28 @@
         <v>1</v>
       </c>
       <c r="M37">
-        <v>27.61562233333333</v>
+        <v>26.49267833333333</v>
       </c>
       <c r="N37">
-        <v>82.846867</v>
+        <v>79.47803500000001</v>
       </c>
       <c r="O37">
-        <v>0.2676177704286402</v>
+        <v>0.2588280035558662</v>
       </c>
       <c r="P37">
-        <v>0.2676177704286402</v>
+        <v>0.2588280035558662</v>
       </c>
       <c r="Q37">
-        <v>1758.129412199353</v>
+        <v>1587.42601711972</v>
       </c>
       <c r="R37">
-        <v>15823.16470979417</v>
+        <v>14286.83415407748</v>
       </c>
       <c r="S37">
-        <v>0.01622998642164492</v>
+        <v>0.01203894891354274</v>
       </c>
       <c r="T37">
-        <v>0.01622998642164491</v>
+        <v>0.01203894891354274</v>
       </c>
     </row>
   </sheetData>
